--- a/Code/Results/Cases/Case_0_108/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_108/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9934922299078474</v>
+        <v>1.050393171873581</v>
       </c>
       <c r="D2">
-        <v>1.009103597967819</v>
+        <v>1.060059378363251</v>
       </c>
       <c r="E2">
-        <v>1.00922705420928</v>
+        <v>1.057316900730347</v>
       </c>
       <c r="F2">
-        <v>1.017477107096683</v>
+        <v>1.067763724239627</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046288789113643</v>
+        <v>1.028321640044225</v>
       </c>
       <c r="J2">
-        <v>1.01586934494839</v>
+        <v>1.055426563910119</v>
       </c>
       <c r="K2">
-        <v>1.020437545574815</v>
+        <v>1.062787189178987</v>
       </c>
       <c r="L2">
-        <v>1.020559320976428</v>
+        <v>1.060052202493248</v>
       </c>
       <c r="M2">
-        <v>1.028698211434145</v>
+        <v>1.070470713750412</v>
       </c>
       <c r="N2">
-        <v>1.01731199594005</v>
+        <v>1.056925390689991</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000367581542436</v>
+        <v>1.051816026289495</v>
       </c>
       <c r="D3">
-        <v>1.015343870519796</v>
+        <v>1.061402787084415</v>
       </c>
       <c r="E3">
-        <v>1.015109117794915</v>
+        <v>1.058581220172807</v>
       </c>
       <c r="F3">
-        <v>1.023786788306138</v>
+        <v>1.069111091203671</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046733695132176</v>
+        <v>1.028309013115019</v>
       </c>
       <c r="J3">
-        <v>1.020848230927674</v>
+        <v>1.056496770783182</v>
       </c>
       <c r="K3">
-        <v>1.025784116966847</v>
+        <v>1.063943612724984</v>
       </c>
       <c r="L3">
-        <v>1.025552256841022</v>
+        <v>1.061129189832388</v>
       </c>
       <c r="M3">
-        <v>1.034124096942669</v>
+        <v>1.071632606921177</v>
       </c>
       <c r="N3">
-        <v>1.02229795250852</v>
+        <v>1.057997117379567</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004697607533473</v>
+        <v>1.052736274164227</v>
       </c>
       <c r="D4">
-        <v>1.01927948869858</v>
+        <v>1.062271796679359</v>
       </c>
       <c r="E4">
-        <v>1.018819229161914</v>
+        <v>1.059399025453466</v>
       </c>
       <c r="F4">
-        <v>1.027764296839626</v>
+        <v>1.069982283623907</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046995613602566</v>
+        <v>1.028298401527434</v>
       </c>
       <c r="J4">
-        <v>1.023981906609786</v>
+        <v>1.057188395812965</v>
       </c>
       <c r="K4">
-        <v>1.02915066520615</v>
+        <v>1.064691089179896</v>
       </c>
       <c r="L4">
-        <v>1.028695706979932</v>
+        <v>1.061825221848498</v>
       </c>
       <c r="M4">
-        <v>1.037538792795037</v>
+        <v>1.072383242891091</v>
       </c>
       <c r="N4">
-        <v>1.025436078369538</v>
+        <v>1.058689724596223</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006490995602231</v>
+        <v>1.05312304707518</v>
       </c>
       <c r="D5">
-        <v>1.020910771668672</v>
+        <v>1.062637068260428</v>
       </c>
       <c r="E5">
-        <v>1.020357123899966</v>
+        <v>1.05974276362489</v>
       </c>
       <c r="F5">
-        <v>1.029412462645025</v>
+        <v>1.070348382020788</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047099596642352</v>
+        <v>1.028293355270579</v>
       </c>
       <c r="J5">
-        <v>1.025279255268831</v>
+        <v>1.057478949679894</v>
       </c>
       <c r="K5">
-        <v>1.030544764332417</v>
+        <v>1.065005138273636</v>
       </c>
       <c r="L5">
-        <v>1.029997310519664</v>
+        <v>1.062117632925963</v>
       </c>
       <c r="M5">
-        <v>1.038952370056165</v>
+        <v>1.072698529078393</v>
       </c>
       <c r="N5">
-        <v>1.026735269412488</v>
+        <v>1.05898069108297</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00679057374673</v>
+        <v>1.05318798226015</v>
       </c>
       <c r="D6">
-        <v>1.021183341875899</v>
+        <v>1.062698395547571</v>
       </c>
       <c r="E6">
-        <v>1.020614094341249</v>
+        <v>1.059800474930364</v>
       </c>
       <c r="F6">
-        <v>1.02968782475228</v>
+        <v>1.070409842799529</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04711669897134</v>
+        <v>1.028292473646965</v>
       </c>
       <c r="J6">
-        <v>1.025495938357465</v>
+        <v>1.057527723003126</v>
       </c>
       <c r="K6">
-        <v>1.030777626487394</v>
+        <v>1.065057857447969</v>
       </c>
       <c r="L6">
-        <v>1.030214716076318</v>
+        <v>1.062166718342682</v>
       </c>
       <c r="M6">
-        <v>1.039188457838044</v>
+        <v>1.072751450612343</v>
       </c>
       <c r="N6">
-        <v>1.02695226021596</v>
+        <v>1.059029533669916</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004721674908436</v>
+        <v>1.052741442627236</v>
       </c>
       <c r="D7">
-        <v>1.01930137578259</v>
+        <v>1.062276677687691</v>
       </c>
       <c r="E7">
-        <v>1.018839862939994</v>
+        <v>1.05940361875972</v>
       </c>
       <c r="F7">
-        <v>1.027786412378245</v>
+        <v>1.069987176037478</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046997026993246</v>
+        <v>1.02829833639928</v>
       </c>
       <c r="J7">
-        <v>1.023999319332518</v>
+        <v>1.057192279010843</v>
       </c>
       <c r="K7">
-        <v>1.029169375154401</v>
+        <v>1.064695286261965</v>
       </c>
       <c r="L7">
-        <v>1.028713176006436</v>
+        <v>1.061829129844997</v>
       </c>
       <c r="M7">
-        <v>1.037557766013461</v>
+        <v>1.07238745686184</v>
       </c>
       <c r="N7">
-        <v>1.025453515820334</v>
+        <v>1.058693613308687</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9958413119196678</v>
+        <v>1.050874124850312</v>
       </c>
       <c r="D8">
-        <v>1.011234469601841</v>
+        <v>1.060513446782984</v>
       </c>
       <c r="E8">
-        <v>1.011235512109656</v>
+        <v>1.057744246199276</v>
       </c>
       <c r="F8">
-        <v>1.019632058493009</v>
+        <v>1.068219208571906</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046444579385001</v>
+        <v>1.028317877725795</v>
       </c>
       <c r="J8">
-        <v>1.017570840508208</v>
+        <v>1.055788427406305</v>
       </c>
       <c r="K8">
-        <v>1.022264383214476</v>
+        <v>1.063178176916896</v>
       </c>
       <c r="L8">
-        <v>1.022265411991634</v>
+        <v>1.060416353324002</v>
       </c>
       <c r="M8">
-        <v>1.030552508723871</v>
+        <v>1.070863628433186</v>
       </c>
       <c r="N8">
-        <v>1.019015907818736</v>
+        <v>1.057287768073848</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9792101190129781</v>
+        <v>1.047580140409733</v>
       </c>
       <c r="D9">
-        <v>0.9961759412412939</v>
+        <v>1.057404214168909</v>
       </c>
       <c r="E9">
-        <v>0.9970445151390557</v>
+        <v>1.054817824444295</v>
       </c>
       <c r="F9">
-        <v>1.004396530784492</v>
+        <v>1.065098742193138</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04526780975729</v>
+        <v>1.028333647786677</v>
       </c>
       <c r="J9">
-        <v>1.005519003080748</v>
+        <v>1.053307857150254</v>
       </c>
       <c r="K9">
-        <v>1.00933136732302</v>
+        <v>1.060498513964501</v>
       </c>
       <c r="L9">
-        <v>1.010185725712985</v>
+        <v>1.057920213741252</v>
       </c>
       <c r="M9">
-        <v>1.017418677812746</v>
+        <v>1.068169229251141</v>
       </c>
       <c r="N9">
-        <v>1.006946955399764</v>
+        <v>1.054803675123507</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9673480985913131</v>
+        <v>1.045381484283809</v>
       </c>
       <c r="D10">
-        <v>0.9854759296050773</v>
+        <v>1.055329691244991</v>
       </c>
       <c r="E10">
-        <v>0.9869649452700346</v>
+        <v>1.052865062256223</v>
       </c>
       <c r="F10">
-        <v>0.9935635243595993</v>
+        <v>1.063014803523231</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04433968036423</v>
+        <v>1.028331654100369</v>
       </c>
       <c r="J10">
-        <v>0.9969198872172339</v>
+        <v>1.051649373303894</v>
       </c>
       <c r="K10">
-        <v>1.000112467500284</v>
+        <v>1.058707619516667</v>
       </c>
       <c r="L10">
-        <v>1.001573608760235</v>
+        <v>1.056251466699201</v>
       </c>
       <c r="M10">
-        <v>1.008049972018044</v>
+        <v>1.066366579060366</v>
       </c>
       <c r="N10">
-        <v>0.9983356278053914</v>
+        <v>1.053142836039855</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9619986488090148</v>
+        <v>1.044428743966888</v>
       </c>
       <c r="D11">
-        <v>0.9806618196429536</v>
+        <v>1.05443094543819</v>
       </c>
       <c r="E11">
-        <v>0.9824312477186765</v>
+        <v>1.052019018202008</v>
       </c>
       <c r="F11">
-        <v>0.988688388094936</v>
+        <v>1.062111526736915</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043901925944339</v>
+        <v>1.028327832734958</v>
       </c>
       <c r="J11">
-        <v>0.9930424716169316</v>
+        <v>1.050930055881235</v>
       </c>
       <c r="K11">
-        <v>0.9959578785166161</v>
+        <v>1.057931040787198</v>
       </c>
       <c r="L11">
-        <v>0.9976922686552534</v>
+        <v>1.055527735059033</v>
       </c>
       <c r="M11">
-        <v>1.003826824795841</v>
+        <v>1.065584455137184</v>
       </c>
       <c r="N11">
-        <v>0.9944527058301911</v>
+        <v>1.052422497103949</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9599767501061471</v>
+        <v>1.044074741748224</v>
       </c>
       <c r="D12">
-        <v>0.9788441228894859</v>
+        <v>1.054097037079862</v>
       </c>
       <c r="E12">
-        <v>0.9807196483123172</v>
+        <v>1.05170468281677</v>
       </c>
       <c r="F12">
-        <v>0.9868475195828357</v>
+        <v>1.061775867424598</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043733760108143</v>
+        <v>1.028325969513585</v>
       </c>
       <c r="J12">
-        <v>0.9915771579481047</v>
+        <v>1.050662687744561</v>
       </c>
       <c r="K12">
-        <v>0.9943881785733951</v>
+        <v>1.057642414140389</v>
       </c>
       <c r="L12">
-        <v>0.9962257920063309</v>
+        <v>1.055258731953969</v>
       </c>
       <c r="M12">
-        <v>1.002231114163072</v>
+        <v>1.065293700683018</v>
       </c>
       <c r="N12">
-        <v>0.9929853112478807</v>
+        <v>1.052154749273853</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9604120820264558</v>
+        <v>1.044150681588195</v>
       </c>
       <c r="D13">
-        <v>0.979235401497236</v>
+        <v>1.054168664983895</v>
       </c>
       <c r="E13">
-        <v>0.9810880778840245</v>
+        <v>1.051772112371805</v>
       </c>
       <c r="F13">
-        <v>0.9872437911783897</v>
+        <v>1.061847873984978</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043770087093132</v>
+        <v>1.028326389253746</v>
       </c>
       <c r="J13">
-        <v>0.9918926407865055</v>
+        <v>1.050720047398793</v>
       </c>
       <c r="K13">
-        <v>0.9947261192997477</v>
+        <v>1.057704333326612</v>
       </c>
       <c r="L13">
-        <v>0.9965415102886017</v>
+        <v>1.055316442100172</v>
       </c>
       <c r="M13">
-        <v>1.002574658763187</v>
+        <v>1.065356079367465</v>
       </c>
       <c r="N13">
-        <v>0.9933012421080986</v>
+        <v>1.052212190385374</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9618322472063744</v>
+        <v>1.044399484351918</v>
       </c>
       <c r="D14">
-        <v>0.9805121849990639</v>
+        <v>1.054403346007786</v>
       </c>
       <c r="E14">
-        <v>0.9822903424662667</v>
+        <v>1.051993036734449</v>
       </c>
       <c r="F14">
-        <v>0.9885368482616507</v>
+        <v>1.062083783956774</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043888139902992</v>
+        <v>1.028327687770252</v>
       </c>
       <c r="J14">
-        <v>0.992921871763724</v>
+        <v>1.050907958875196</v>
       </c>
       <c r="K14">
-        <v>0.995828679943738</v>
+        <v>1.057907186324724</v>
       </c>
       <c r="L14">
-        <v>0.9975715664136807</v>
+        <v>1.055505502809666</v>
       </c>
       <c r="M14">
-        <v>1.003695487229088</v>
+        <v>1.065560426176686</v>
       </c>
       <c r="N14">
-        <v>0.9943319347113591</v>
+        <v>1.052400368717627</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9627025453333444</v>
+        <v>1.044552764927633</v>
       </c>
       <c r="D15">
-        <v>0.9812948669138756</v>
+        <v>1.054547930771963</v>
       </c>
       <c r="E15">
-        <v>0.9830273733940318</v>
+        <v>1.052129145206537</v>
       </c>
       <c r="F15">
-        <v>0.9893294905265285</v>
+        <v>1.062229116920101</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043960133206112</v>
+        <v>1.028328429040229</v>
       </c>
       <c r="J15">
-        <v>0.9935526311508458</v>
+        <v>1.051023713154712</v>
       </c>
       <c r="K15">
-        <v>0.9965044269642169</v>
+        <v>1.058032148007777</v>
       </c>
       <c r="L15">
-        <v>0.9982028745089853</v>
+        <v>1.055621965793905</v>
       </c>
       <c r="M15">
-        <v>1.004382417744001</v>
+        <v>1.065686299233289</v>
       </c>
       <c r="N15">
-        <v>0.9949635898491598</v>
+        <v>1.052516287381497</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9676983976350854</v>
+        <v>1.04544469912281</v>
       </c>
       <c r="D16">
-        <v>0.9857914206251364</v>
+        <v>1.05538932789263</v>
       </c>
       <c r="E16">
-        <v>0.9872620882640748</v>
+        <v>1.052921200845854</v>
       </c>
       <c r="F16">
-        <v>0.9938829940738652</v>
+        <v>1.063074731335027</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044367962452791</v>
+        <v>1.028331845441816</v>
       </c>
       <c r="J16">
-        <v>0.9971738145512034</v>
+        <v>1.051697086776844</v>
       </c>
       <c r="K16">
-        <v>1.000384595405251</v>
+        <v>1.058759134768262</v>
       </c>
       <c r="L16">
-        <v>1.001827835643878</v>
+        <v>1.05629947377354</v>
       </c>
       <c r="M16">
-        <v>1.008326572898767</v>
+        <v>1.066418452767081</v>
       </c>
       <c r="N16">
-        <v>0.9985899157453014</v>
+        <v>1.053190617271409</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9707731933039797</v>
+        <v>1.046003992376836</v>
       </c>
       <c r="D17">
-        <v>0.9885619804420545</v>
+        <v>1.055916986775624</v>
       </c>
       <c r="E17">
-        <v>0.989871667039027</v>
+        <v>1.053417903673285</v>
       </c>
       <c r="F17">
-        <v>0.9966883645812129</v>
+        <v>1.063604914268306</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044614062292223</v>
+        <v>1.028333196940592</v>
       </c>
       <c r="J17">
-        <v>0.9994027713314759</v>
+        <v>1.052119156804898</v>
       </c>
       <c r="K17">
-        <v>1.002773576511833</v>
+        <v>1.059214854448493</v>
       </c>
       <c r="L17">
-        <v>1.00405964414894</v>
+        <v>1.05672414529059</v>
       </c>
       <c r="M17">
-        <v>1.01075470898746</v>
+        <v>1.066877291831203</v>
       </c>
       <c r="N17">
-        <v>1.000822037899867</v>
+        <v>1.053613286687315</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9725463168853778</v>
+        <v>1.046330150774803</v>
       </c>
       <c r="D18">
-        <v>0.9901607151423057</v>
+        <v>1.056224716840697</v>
       </c>
       <c r="E18">
-        <v>0.9913776258265861</v>
+        <v>1.053707575496972</v>
       </c>
       <c r="F18">
-        <v>0.9983070709944941</v>
+        <v>1.063914072758073</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044754160288754</v>
+        <v>1.028333699793847</v>
       </c>
       <c r="J18">
-        <v>1.000688173395148</v>
+        <v>1.052365229236496</v>
       </c>
       <c r="K18">
-        <v>1.004151476700869</v>
+        <v>1.059480561239947</v>
       </c>
       <c r="L18">
-        <v>1.005346871206065</v>
+        <v>1.056971737990602</v>
       </c>
       <c r="M18">
-        <v>1.012155090723407</v>
+        <v>1.067144774199595</v>
       </c>
       <c r="N18">
-        <v>1.002109265381906</v>
+        <v>1.053859708569991</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9731475353677274</v>
+        <v>1.046441351015917</v>
       </c>
       <c r="D19">
-        <v>0.9907029770543031</v>
+        <v>1.056329637438464</v>
       </c>
       <c r="E19">
-        <v>0.9918884388703201</v>
+        <v>1.053806338332634</v>
       </c>
       <c r="F19">
-        <v>0.9988560859550731</v>
+        <v>1.064019472973071</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044801350271013</v>
+        <v>1.028333822816739</v>
       </c>
       <c r="J19">
-        <v>1.00112402242848</v>
+        <v>1.052449114378395</v>
       </c>
       <c r="K19">
-        <v>1.004618725617729</v>
+        <v>1.059571142397187</v>
       </c>
       <c r="L19">
-        <v>1.005783368846348</v>
+        <v>1.057056141984758</v>
       </c>
       <c r="M19">
-        <v>1.012629944476487</v>
+        <v>1.067235953327209</v>
       </c>
       <c r="N19">
-        <v>1.002545733370859</v>
+        <v>1.053943712838413</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9704454215730287</v>
+        <v>1.045943992569442</v>
       </c>
       <c r="D20">
-        <v>0.9882665296046377</v>
+        <v>1.055860378601127</v>
       </c>
       <c r="E20">
-        <v>0.9895933707460527</v>
+        <v>1.053364617004461</v>
       </c>
       <c r="F20">
-        <v>0.9963892132228879</v>
+        <v>1.063548039816941</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044588015943214</v>
+        <v>1.028333081458954</v>
       </c>
       <c r="J20">
-        <v>0.9991651602733254</v>
+        <v>1.05207388449333</v>
       </c>
       <c r="K20">
-        <v>1.002518884134043</v>
+        <v>1.059165971115692</v>
       </c>
       <c r="L20">
-        <v>1.003821710148163</v>
+        <v>1.056678593566269</v>
       </c>
       <c r="M20">
-        <v>1.010495852503803</v>
+        <v>1.066828078357647</v>
       </c>
       <c r="N20">
-        <v>1.000584089406759</v>
+        <v>1.053567950083871</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9614150313363962</v>
+        <v>1.044326221278294</v>
       </c>
       <c r="D21">
-        <v>0.9801370391879417</v>
+        <v>1.054334240378546</v>
       </c>
       <c r="E21">
-        <v>0.9819370855741977</v>
+        <v>1.051927982173119</v>
       </c>
       <c r="F21">
-        <v>0.9881569240797545</v>
+        <v>1.062014318306689</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043853531409072</v>
+        <v>1.028327317635516</v>
       </c>
       <c r="J21">
-        <v>0.9926194976491163</v>
+        <v>1.050852628673874</v>
       </c>
       <c r="K21">
-        <v>0.9955047525318421</v>
+        <v>1.057847455918155</v>
       </c>
       <c r="L21">
-        <v>0.997268940838853</v>
+        <v>1.055449834057449</v>
       </c>
       <c r="M21">
-        <v>1.003366195360144</v>
+        <v>1.065500257757075</v>
       </c>
       <c r="N21">
-        <v>0.9940291311908257</v>
+        <v>1.052344959941073</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9555338149274922</v>
+        <v>1.043308413151836</v>
       </c>
       <c r="D22">
-        <v>0.9748535338561524</v>
+        <v>1.053374265461935</v>
       </c>
       <c r="E22">
-        <v>0.9769624279735757</v>
+        <v>1.051024265573987</v>
       </c>
       <c r="F22">
-        <v>0.9828058782868838</v>
+        <v>1.061049182479762</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04335943568877</v>
+        <v>1.028321126321882</v>
       </c>
       <c r="J22">
-        <v>0.9883578039052096</v>
+        <v>1.050083723938094</v>
       </c>
       <c r="K22">
-        <v>0.9909401666886022</v>
+        <v>1.057017463283442</v>
       </c>
       <c r="L22">
-        <v>0.9930045076242696</v>
+        <v>1.054676238558637</v>
       </c>
       <c r="M22">
-        <v>0.9987258265134864</v>
+        <v>1.064664020712006</v>
       </c>
       <c r="N22">
-        <v>0.9897613853529793</v>
+        <v>1.051574963272373</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9586718905653012</v>
+        <v>1.043848036130977</v>
       </c>
       <c r="D23">
-        <v>0.9776715949368724</v>
+        <v>1.053883208709085</v>
       </c>
       <c r="E23">
-        <v>0.979615625835195</v>
+        <v>1.051503386600829</v>
       </c>
       <c r="F23">
-        <v>0.9856600143735286</v>
+        <v>1.061560898792684</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043624490629759</v>
+        <v>1.028324651606806</v>
       </c>
       <c r="J23">
-        <v>0.9906315739591133</v>
+        <v>1.050491435977555</v>
       </c>
       <c r="K23">
-        <v>0.9933753365752521</v>
+        <v>1.057457553253286</v>
       </c>
       <c r="L23">
-        <v>0.9952795516437164</v>
+        <v>1.055086434628003</v>
       </c>
       <c r="M23">
-        <v>1.001201465018858</v>
+        <v>1.065107458195384</v>
       </c>
       <c r="N23">
-        <v>0.9920383844211648</v>
+        <v>1.051983254309695</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9705935901938322</v>
+        <v>1.045971104109164</v>
       </c>
       <c r="D24">
-        <v>0.9884000843663246</v>
+        <v>1.055885957535571</v>
       </c>
       <c r="E24">
-        <v>0.9897191706542778</v>
+        <v>1.05338869509998</v>
       </c>
       <c r="F24">
-        <v>0.9965244411200407</v>
+        <v>1.063573739205836</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044599795809164</v>
+        <v>1.028333134522248</v>
       </c>
       <c r="J24">
-        <v>0.9992725717994783</v>
+        <v>1.05209434145384</v>
       </c>
       <c r="K24">
-        <v>1.002634016565283</v>
+        <v>1.059188059719365</v>
       </c>
       <c r="L24">
-        <v>1.003929267101603</v>
+        <v>1.056699176772548</v>
       </c>
       <c r="M24">
-        <v>1.01061286761889</v>
+        <v>1.066850316273412</v>
       </c>
       <c r="N24">
-        <v>1.000691653469599</v>
+        <v>1.053588436095612</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9836371431086405</v>
+        <v>1.048432162858885</v>
       </c>
       <c r="D25">
-        <v>1.000177979598222</v>
+        <v>1.058208308544898</v>
       </c>
       <c r="E25">
-        <v>1.000815402728055</v>
+        <v>1.055574679383319</v>
       </c>
       <c r="F25">
-        <v>1.008447005034229</v>
+        <v>1.065906081408108</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045596791816456</v>
+        <v>1.028331778305837</v>
       </c>
       <c r="J25">
-        <v>1.008728015649587</v>
+        <v>1.053949970427282</v>
       </c>
       <c r="K25">
-        <v>1.012773533290763</v>
+        <v>1.061192040994015</v>
       </c>
       <c r="L25">
-        <v>1.013401073793384</v>
+        <v>1.058566332318337</v>
       </c>
       <c r="M25">
-        <v>1.020915592203773</v>
+        <v>1.068866907551088</v>
       </c>
       <c r="N25">
-        <v>1.01016052513453</v>
+        <v>1.05544670027504</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_108/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_108/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.050393171873581</v>
+        <v>0.9934922299078472</v>
       </c>
       <c r="D2">
-        <v>1.060059378363251</v>
+        <v>1.009103597967819</v>
       </c>
       <c r="E2">
-        <v>1.057316900730347</v>
+        <v>1.00922705420928</v>
       </c>
       <c r="F2">
-        <v>1.067763724239627</v>
+        <v>1.017477107096683</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028321640044225</v>
+        <v>1.046288789113643</v>
       </c>
       <c r="J2">
-        <v>1.055426563910119</v>
+        <v>1.015869344948389</v>
       </c>
       <c r="K2">
-        <v>1.062787189178987</v>
+        <v>1.020437545574814</v>
       </c>
       <c r="L2">
-        <v>1.060052202493248</v>
+        <v>1.020559320976427</v>
       </c>
       <c r="M2">
-        <v>1.070470713750412</v>
+        <v>1.028698211434145</v>
       </c>
       <c r="N2">
-        <v>1.056925390689991</v>
+        <v>1.017311995940049</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051816026289495</v>
+        <v>1.000367581542436</v>
       </c>
       <c r="D3">
-        <v>1.061402787084415</v>
+        <v>1.015343870519795</v>
       </c>
       <c r="E3">
-        <v>1.058581220172807</v>
+        <v>1.015109117794915</v>
       </c>
       <c r="F3">
-        <v>1.069111091203671</v>
+        <v>1.023786788306138</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028309013115019</v>
+        <v>1.046733695132176</v>
       </c>
       <c r="J3">
-        <v>1.056496770783182</v>
+        <v>1.020848230927674</v>
       </c>
       <c r="K3">
-        <v>1.063943612724984</v>
+        <v>1.025784116966847</v>
       </c>
       <c r="L3">
-        <v>1.061129189832388</v>
+        <v>1.025552256841022</v>
       </c>
       <c r="M3">
-        <v>1.071632606921177</v>
+        <v>1.034124096942668</v>
       </c>
       <c r="N3">
-        <v>1.057997117379567</v>
+        <v>1.02229795250852</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052736274164227</v>
+        <v>1.004697607533473</v>
       </c>
       <c r="D4">
-        <v>1.062271796679359</v>
+        <v>1.01927948869858</v>
       </c>
       <c r="E4">
-        <v>1.059399025453466</v>
+        <v>1.018819229161914</v>
       </c>
       <c r="F4">
-        <v>1.069982283623907</v>
+        <v>1.027764296839625</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028298401527434</v>
+        <v>1.046995613602566</v>
       </c>
       <c r="J4">
-        <v>1.057188395812965</v>
+        <v>1.023981906609786</v>
       </c>
       <c r="K4">
-        <v>1.064691089179896</v>
+        <v>1.02915066520615</v>
       </c>
       <c r="L4">
-        <v>1.061825221848498</v>
+        <v>1.028695706979932</v>
       </c>
       <c r="M4">
-        <v>1.072383242891091</v>
+        <v>1.037538792795037</v>
       </c>
       <c r="N4">
-        <v>1.058689724596223</v>
+        <v>1.025436078369539</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.05312304707518</v>
+        <v>1.00649099560223</v>
       </c>
       <c r="D5">
-        <v>1.062637068260428</v>
+        <v>1.020910771668671</v>
       </c>
       <c r="E5">
-        <v>1.05974276362489</v>
+        <v>1.020357123899966</v>
       </c>
       <c r="F5">
-        <v>1.070348382020788</v>
+        <v>1.029412462645024</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028293355270579</v>
+        <v>1.047099596642352</v>
       </c>
       <c r="J5">
-        <v>1.057478949679894</v>
+        <v>1.025279255268831</v>
       </c>
       <c r="K5">
-        <v>1.065005138273636</v>
+        <v>1.030544764332416</v>
       </c>
       <c r="L5">
-        <v>1.062117632925963</v>
+        <v>1.029997310519663</v>
       </c>
       <c r="M5">
-        <v>1.072698529078393</v>
+        <v>1.038952370056164</v>
       </c>
       <c r="N5">
-        <v>1.05898069108297</v>
+        <v>1.026735269412487</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.05318798226015</v>
+        <v>1.00679057374673</v>
       </c>
       <c r="D6">
-        <v>1.062698395547571</v>
+        <v>1.021183341875899</v>
       </c>
       <c r="E6">
-        <v>1.059800474930364</v>
+        <v>1.02061409434125</v>
       </c>
       <c r="F6">
-        <v>1.070409842799529</v>
+        <v>1.02968782475228</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028292473646965</v>
+        <v>1.04711669897134</v>
       </c>
       <c r="J6">
-        <v>1.057527723003126</v>
+        <v>1.025495938357465</v>
       </c>
       <c r="K6">
-        <v>1.065057857447969</v>
+        <v>1.030777626487394</v>
       </c>
       <c r="L6">
-        <v>1.062166718342682</v>
+        <v>1.030214716076318</v>
       </c>
       <c r="M6">
-        <v>1.072751450612343</v>
+        <v>1.039188457838044</v>
       </c>
       <c r="N6">
-        <v>1.059029533669916</v>
+        <v>1.026952260215961</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052741442627236</v>
+        <v>1.004721674908437</v>
       </c>
       <c r="D7">
-        <v>1.062276677687691</v>
+        <v>1.019301375782591</v>
       </c>
       <c r="E7">
-        <v>1.05940361875972</v>
+        <v>1.018839862939994</v>
       </c>
       <c r="F7">
-        <v>1.069987176037478</v>
+        <v>1.027786412378245</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02829833639928</v>
+        <v>1.046997026993246</v>
       </c>
       <c r="J7">
-        <v>1.057192279010843</v>
+        <v>1.023999319332519</v>
       </c>
       <c r="K7">
-        <v>1.064695286261965</v>
+        <v>1.029169375154401</v>
       </c>
       <c r="L7">
-        <v>1.061829129844997</v>
+        <v>1.028713176006437</v>
       </c>
       <c r="M7">
-        <v>1.07238745686184</v>
+        <v>1.037557766013462</v>
       </c>
       <c r="N7">
-        <v>1.058693613308687</v>
+        <v>1.025453515820334</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050874124850312</v>
+        <v>0.9958413119196663</v>
       </c>
       <c r="D8">
-        <v>1.060513446782984</v>
+        <v>1.011234469601839</v>
       </c>
       <c r="E8">
-        <v>1.057744246199276</v>
+        <v>1.011235512109655</v>
       </c>
       <c r="F8">
-        <v>1.068219208571906</v>
+        <v>1.019632058493007</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028317877725795</v>
+        <v>1.046444579385001</v>
       </c>
       <c r="J8">
-        <v>1.055788427406305</v>
+        <v>1.017570840508206</v>
       </c>
       <c r="K8">
-        <v>1.063178176916896</v>
+        <v>1.022264383214475</v>
       </c>
       <c r="L8">
-        <v>1.060416353324002</v>
+        <v>1.022265411991632</v>
       </c>
       <c r="M8">
-        <v>1.070863628433186</v>
+        <v>1.03055250872387</v>
       </c>
       <c r="N8">
-        <v>1.057287768073848</v>
+        <v>1.019015907818735</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047580140409733</v>
+        <v>0.9792101190129778</v>
       </c>
       <c r="D9">
-        <v>1.057404214168909</v>
+        <v>0.996175941241294</v>
       </c>
       <c r="E9">
-        <v>1.054817824444295</v>
+        <v>0.9970445151390556</v>
       </c>
       <c r="F9">
-        <v>1.065098742193138</v>
+        <v>1.004396530784492</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028333647786677</v>
+        <v>1.04526780975729</v>
       </c>
       <c r="J9">
-        <v>1.053307857150254</v>
+        <v>1.005519003080748</v>
       </c>
       <c r="K9">
-        <v>1.060498513964501</v>
+        <v>1.00933136732302</v>
       </c>
       <c r="L9">
-        <v>1.057920213741252</v>
+        <v>1.010185725712986</v>
       </c>
       <c r="M9">
-        <v>1.068169229251141</v>
+        <v>1.017418677812746</v>
       </c>
       <c r="N9">
-        <v>1.054803675123507</v>
+        <v>1.006946955399764</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.045381484283809</v>
+        <v>0.9673480985913153</v>
       </c>
       <c r="D10">
-        <v>1.055329691244991</v>
+        <v>0.9854759296050798</v>
       </c>
       <c r="E10">
-        <v>1.052865062256223</v>
+        <v>0.9869649452700372</v>
       </c>
       <c r="F10">
-        <v>1.063014803523231</v>
+        <v>0.9935635243596015</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028331654100369</v>
+        <v>1.04433968036423</v>
       </c>
       <c r="J10">
-        <v>1.051649373303894</v>
+        <v>0.996919887217236</v>
       </c>
       <c r="K10">
-        <v>1.058707619516667</v>
+        <v>1.000112467500287</v>
       </c>
       <c r="L10">
-        <v>1.056251466699201</v>
+        <v>1.001573608760238</v>
       </c>
       <c r="M10">
-        <v>1.066366579060366</v>
+        <v>1.008049972018046</v>
       </c>
       <c r="N10">
-        <v>1.053142836039855</v>
+        <v>0.9983356278053935</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044428743966888</v>
+        <v>0.961998648809015</v>
       </c>
       <c r="D11">
-        <v>1.05443094543819</v>
+        <v>0.9806618196429537</v>
       </c>
       <c r="E11">
-        <v>1.052019018202008</v>
+        <v>0.9824312477186765</v>
       </c>
       <c r="F11">
-        <v>1.062111526736915</v>
+        <v>0.9886883880949364</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028327832734958</v>
+        <v>1.043901925944339</v>
       </c>
       <c r="J11">
-        <v>1.050930055881235</v>
+        <v>0.9930424716169318</v>
       </c>
       <c r="K11">
-        <v>1.057931040787198</v>
+        <v>0.9959578785166163</v>
       </c>
       <c r="L11">
-        <v>1.055527735059033</v>
+        <v>0.9976922686552535</v>
       </c>
       <c r="M11">
-        <v>1.065584455137184</v>
+        <v>1.003826824795842</v>
       </c>
       <c r="N11">
-        <v>1.052422497103949</v>
+        <v>0.9944527058301913</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.044074741748224</v>
+        <v>0.959976750106147</v>
       </c>
       <c r="D12">
-        <v>1.054097037079862</v>
+        <v>0.9788441228894857</v>
       </c>
       <c r="E12">
-        <v>1.05170468281677</v>
+        <v>0.9807196483123171</v>
       </c>
       <c r="F12">
-        <v>1.061775867424598</v>
+        <v>0.9868475195828356</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028325969513585</v>
+        <v>1.043733760108143</v>
       </c>
       <c r="J12">
-        <v>1.050662687744561</v>
+        <v>0.9915771579481047</v>
       </c>
       <c r="K12">
-        <v>1.057642414140389</v>
+        <v>0.9943881785733952</v>
       </c>
       <c r="L12">
-        <v>1.055258731953969</v>
+        <v>0.9962257920063309</v>
       </c>
       <c r="M12">
-        <v>1.065293700683018</v>
+        <v>1.002231114163072</v>
       </c>
       <c r="N12">
-        <v>1.052154749273853</v>
+        <v>0.9929853112478807</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.044150681588195</v>
+        <v>0.9604120820264562</v>
       </c>
       <c r="D13">
-        <v>1.054168664983895</v>
+        <v>0.9792354014972368</v>
       </c>
       <c r="E13">
-        <v>1.051772112371805</v>
+        <v>0.9810880778840253</v>
       </c>
       <c r="F13">
-        <v>1.061847873984978</v>
+        <v>0.9872437911783903</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028326389253746</v>
+        <v>1.043770087093132</v>
       </c>
       <c r="J13">
-        <v>1.050720047398793</v>
+        <v>0.9918926407865061</v>
       </c>
       <c r="K13">
-        <v>1.057704333326612</v>
+        <v>0.9947261192997483</v>
       </c>
       <c r="L13">
-        <v>1.055316442100172</v>
+        <v>0.9965415102886023</v>
       </c>
       <c r="M13">
-        <v>1.065356079367465</v>
+        <v>1.002574658763188</v>
       </c>
       <c r="N13">
-        <v>1.052212190385374</v>
+        <v>0.9933012421080988</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044399484351918</v>
+        <v>0.9618322472063745</v>
       </c>
       <c r="D14">
-        <v>1.054403346007786</v>
+        <v>0.9805121849990639</v>
       </c>
       <c r="E14">
-        <v>1.051993036734449</v>
+        <v>0.9822903424662663</v>
       </c>
       <c r="F14">
-        <v>1.062083783956774</v>
+        <v>0.9885368482616509</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028327687770252</v>
+        <v>1.043888139902992</v>
       </c>
       <c r="J14">
-        <v>1.050907958875196</v>
+        <v>0.992921871763724</v>
       </c>
       <c r="K14">
-        <v>1.057907186324724</v>
+        <v>0.9958286799437379</v>
       </c>
       <c r="L14">
-        <v>1.055505502809666</v>
+        <v>0.9975715664136805</v>
       </c>
       <c r="M14">
-        <v>1.065560426176686</v>
+        <v>1.003695487229088</v>
       </c>
       <c r="N14">
-        <v>1.052400368717627</v>
+        <v>0.9943319347113588</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044552764927633</v>
+        <v>0.9627025453333448</v>
       </c>
       <c r="D15">
-        <v>1.054547930771963</v>
+        <v>0.9812948669138755</v>
       </c>
       <c r="E15">
-        <v>1.052129145206537</v>
+        <v>0.9830273733940319</v>
       </c>
       <c r="F15">
-        <v>1.062229116920101</v>
+        <v>0.9893294905265285</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028328429040229</v>
+        <v>1.043960133206112</v>
       </c>
       <c r="J15">
-        <v>1.051023713154712</v>
+        <v>0.993552631150846</v>
       </c>
       <c r="K15">
-        <v>1.058032148007777</v>
+        <v>0.9965044269642169</v>
       </c>
       <c r="L15">
-        <v>1.055621965793905</v>
+        <v>0.9982028745089854</v>
       </c>
       <c r="M15">
-        <v>1.065686299233289</v>
+        <v>1.004382417744001</v>
       </c>
       <c r="N15">
-        <v>1.052516287381497</v>
+        <v>0.9949635898491599</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.04544469912281</v>
+        <v>0.9676983976350845</v>
       </c>
       <c r="D16">
-        <v>1.05538932789263</v>
+        <v>0.9857914206251358</v>
       </c>
       <c r="E16">
-        <v>1.052921200845854</v>
+        <v>0.9872620882640741</v>
       </c>
       <c r="F16">
-        <v>1.063074731335027</v>
+        <v>0.9938829940738648</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028331845441816</v>
+        <v>1.044367962452791</v>
       </c>
       <c r="J16">
-        <v>1.051697086776844</v>
+        <v>0.9971738145512027</v>
       </c>
       <c r="K16">
-        <v>1.058759134768262</v>
+        <v>1.00038459540525</v>
       </c>
       <c r="L16">
-        <v>1.05629947377354</v>
+        <v>1.001827835643877</v>
       </c>
       <c r="M16">
-        <v>1.066418452767081</v>
+        <v>1.008326572898766</v>
       </c>
       <c r="N16">
-        <v>1.053190617271409</v>
+        <v>0.9985899157453008</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046003992376836</v>
+        <v>0.9707731933039796</v>
       </c>
       <c r="D17">
-        <v>1.055916986775624</v>
+        <v>0.9885619804420545</v>
       </c>
       <c r="E17">
-        <v>1.053417903673285</v>
+        <v>0.989871667039027</v>
       </c>
       <c r="F17">
-        <v>1.063604914268306</v>
+        <v>0.9966883645812125</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028333196940592</v>
+        <v>1.044614062292223</v>
       </c>
       <c r="J17">
-        <v>1.052119156804898</v>
+        <v>0.9994027713314757</v>
       </c>
       <c r="K17">
-        <v>1.059214854448493</v>
+        <v>1.002773576511832</v>
       </c>
       <c r="L17">
-        <v>1.05672414529059</v>
+        <v>1.00405964414894</v>
       </c>
       <c r="M17">
-        <v>1.066877291831203</v>
+        <v>1.010754708987459</v>
       </c>
       <c r="N17">
-        <v>1.053613286687315</v>
+        <v>1.000822037899867</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046330150774803</v>
+        <v>0.9725463168853776</v>
       </c>
       <c r="D18">
-        <v>1.056224716840697</v>
+        <v>0.9901607151423055</v>
       </c>
       <c r="E18">
-        <v>1.053707575496972</v>
+        <v>0.9913776258265854</v>
       </c>
       <c r="F18">
-        <v>1.063914072758073</v>
+        <v>0.9983070709944937</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028333699793847</v>
+        <v>1.044754160288754</v>
       </c>
       <c r="J18">
-        <v>1.052365229236496</v>
+        <v>1.000688173395147</v>
       </c>
       <c r="K18">
-        <v>1.059480561239947</v>
+        <v>1.004151476700869</v>
       </c>
       <c r="L18">
-        <v>1.056971737990602</v>
+        <v>1.005346871206065</v>
       </c>
       <c r="M18">
-        <v>1.067144774199595</v>
+        <v>1.012155090723406</v>
       </c>
       <c r="N18">
-        <v>1.053859708569991</v>
+        <v>1.002109265381906</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046441351015917</v>
+        <v>0.9731475353677262</v>
       </c>
       <c r="D19">
-        <v>1.056329637438464</v>
+        <v>0.9907029770543023</v>
       </c>
       <c r="E19">
-        <v>1.053806338332634</v>
+        <v>0.991888438870319</v>
       </c>
       <c r="F19">
-        <v>1.064019472973071</v>
+        <v>0.9988560859550722</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028333822816739</v>
+        <v>1.044801350271013</v>
       </c>
       <c r="J19">
-        <v>1.052449114378395</v>
+        <v>1.001124022428479</v>
       </c>
       <c r="K19">
-        <v>1.059571142397187</v>
+        <v>1.004618725617728</v>
       </c>
       <c r="L19">
-        <v>1.057056141984758</v>
+        <v>1.005783368846347</v>
       </c>
       <c r="M19">
-        <v>1.067235953327209</v>
+        <v>1.012629944476486</v>
       </c>
       <c r="N19">
-        <v>1.053943712838413</v>
+        <v>1.002545733370858</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045943992569442</v>
+        <v>0.9704454215730278</v>
       </c>
       <c r="D20">
-        <v>1.055860378601127</v>
+        <v>0.9882665296046368</v>
       </c>
       <c r="E20">
-        <v>1.053364617004461</v>
+        <v>0.9895933707460517</v>
       </c>
       <c r="F20">
-        <v>1.063548039816941</v>
+        <v>0.9963892132228871</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028333081458954</v>
+        <v>1.044588015943214</v>
       </c>
       <c r="J20">
-        <v>1.05207388449333</v>
+        <v>0.9991651602733245</v>
       </c>
       <c r="K20">
-        <v>1.059165971115692</v>
+        <v>1.002518884134042</v>
       </c>
       <c r="L20">
-        <v>1.056678593566269</v>
+        <v>1.003821710148162</v>
       </c>
       <c r="M20">
-        <v>1.066828078357647</v>
+        <v>1.010495852503802</v>
       </c>
       <c r="N20">
-        <v>1.053567950083871</v>
+        <v>1.000584089406758</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044326221278294</v>
+        <v>0.9614150313363953</v>
       </c>
       <c r="D21">
-        <v>1.054334240378546</v>
+        <v>0.9801370391879408</v>
       </c>
       <c r="E21">
-        <v>1.051927982173119</v>
+        <v>0.9819370855741968</v>
       </c>
       <c r="F21">
-        <v>1.062014318306689</v>
+        <v>0.9881569240797536</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028327317635516</v>
+        <v>1.043853531409072</v>
       </c>
       <c r="J21">
-        <v>1.050852628673874</v>
+        <v>0.9926194976491155</v>
       </c>
       <c r="K21">
-        <v>1.057847455918155</v>
+        <v>0.9955047525318415</v>
       </c>
       <c r="L21">
-        <v>1.055449834057449</v>
+        <v>0.997268940838852</v>
       </c>
       <c r="M21">
-        <v>1.065500257757075</v>
+        <v>1.003366195360143</v>
       </c>
       <c r="N21">
-        <v>1.052344959941073</v>
+        <v>0.9940291311908249</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043308413151836</v>
+        <v>0.9555338149274922</v>
       </c>
       <c r="D22">
-        <v>1.053374265461935</v>
+        <v>0.9748535338561523</v>
       </c>
       <c r="E22">
-        <v>1.051024265573987</v>
+        <v>0.9769624279735755</v>
       </c>
       <c r="F22">
-        <v>1.061049182479762</v>
+        <v>0.9828058782868836</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028321126321882</v>
+        <v>1.043359435688769</v>
       </c>
       <c r="J22">
-        <v>1.050083723938094</v>
+        <v>0.9883578039052097</v>
       </c>
       <c r="K22">
-        <v>1.057017463283442</v>
+        <v>0.9909401666886021</v>
       </c>
       <c r="L22">
-        <v>1.054676238558637</v>
+        <v>0.9930045076242694</v>
       </c>
       <c r="M22">
-        <v>1.064664020712006</v>
+        <v>0.9987258265134861</v>
       </c>
       <c r="N22">
-        <v>1.051574963272373</v>
+        <v>0.9897613853529795</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043848036130977</v>
+        <v>0.9586718905652997</v>
       </c>
       <c r="D23">
-        <v>1.053883208709085</v>
+        <v>0.9776715949368711</v>
       </c>
       <c r="E23">
-        <v>1.051503386600829</v>
+        <v>0.9796156258351935</v>
       </c>
       <c r="F23">
-        <v>1.061560898792684</v>
+        <v>0.9856600143735272</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028324651606806</v>
+        <v>1.043624490629759</v>
       </c>
       <c r="J23">
-        <v>1.050491435977555</v>
+        <v>0.9906315739591119</v>
       </c>
       <c r="K23">
-        <v>1.057457553253286</v>
+        <v>0.9933753365752505</v>
       </c>
       <c r="L23">
-        <v>1.055086434628003</v>
+        <v>0.9952795516437152</v>
       </c>
       <c r="M23">
-        <v>1.065107458195384</v>
+        <v>1.001201465018857</v>
       </c>
       <c r="N23">
-        <v>1.051983254309695</v>
+        <v>0.9920383844211637</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045971104109164</v>
+        <v>0.9705935901938316</v>
       </c>
       <c r="D24">
-        <v>1.055885957535571</v>
+        <v>0.9884000843663239</v>
       </c>
       <c r="E24">
-        <v>1.05338869509998</v>
+        <v>0.9897191706542768</v>
       </c>
       <c r="F24">
-        <v>1.063573739205836</v>
+        <v>0.9965244411200398</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028333134522248</v>
+        <v>1.044599795809164</v>
       </c>
       <c r="J24">
-        <v>1.05209434145384</v>
+        <v>0.9992725717994776</v>
       </c>
       <c r="K24">
-        <v>1.059188059719365</v>
+        <v>1.002634016565282</v>
       </c>
       <c r="L24">
-        <v>1.056699176772548</v>
+        <v>1.003929267101602</v>
       </c>
       <c r="M24">
-        <v>1.066850316273412</v>
+        <v>1.01061286761889</v>
       </c>
       <c r="N24">
-        <v>1.053588436095612</v>
+        <v>1.000691653469599</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048432162858885</v>
+        <v>0.9836371431086415</v>
       </c>
       <c r="D25">
-        <v>1.058208308544898</v>
+        <v>1.000177979598223</v>
       </c>
       <c r="E25">
-        <v>1.055574679383319</v>
+        <v>1.000815402728056</v>
       </c>
       <c r="F25">
-        <v>1.065906081408108</v>
+        <v>1.00844700503423</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028331778305837</v>
+        <v>1.045596791816456</v>
       </c>
       <c r="J25">
-        <v>1.053949970427282</v>
+        <v>1.008728015649588</v>
       </c>
       <c r="K25">
-        <v>1.061192040994015</v>
+        <v>1.012773533290764</v>
       </c>
       <c r="L25">
-        <v>1.058566332318337</v>
+        <v>1.013401073793385</v>
       </c>
       <c r="M25">
-        <v>1.068866907551088</v>
+        <v>1.020915592203774</v>
       </c>
       <c r="N25">
-        <v>1.05544670027504</v>
+        <v>1.010160525134531</v>
       </c>
     </row>
   </sheetData>
